--- a/biology/Histoire de la zoologie et de la botanique/Ménagerie_du_Jardin_des_plantes/Ménagerie_du_Jardin_des_plantes.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Ménagerie_du_Jardin_des_plantes/Ménagerie_du_Jardin_des_plantes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9nagerie_du_Jardin_des_plantes</t>
+          <t>Ménagerie_du_Jardin_des_plantes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La ménagerie du Jardin des plantes est un parc zoologique public du Muséum national d'histoire naturelle, situé à Paris dans le 5e arrondissement. Fondé en 1794 à l'initiative de Bernardin de Saint-Pierre, ce zoo est l'un des plus anciens du monde toujours ouverts au public. Depuis 1993, tous les bâtiments, abris horticoles ou zoologiques inclus, sont classés monuments historiques.
 La ménagerie s'étend sur environ 5,5 hectares dans le quart nord-est du jardin des plantes de Paris, bordée par la rue Cuvier au Nord-Ouest et le quai Saint-Bernard au Nord-Est. Elle présente au public environ 600 mammifères, oiseaux, reptiles et amphibiens, auxquels s'ajoutent des invertébrés, pour un total de 189 espèces. C'est l'un des rares zoos français à présenter des kangourous arboricoles, des orangs-outans et des diables de Tasmanie.
-Comme le parc zoologique de Paris (dit « zoo de Vincennes ») et la réserve zoologique de la Haute-Touche, la ménagerie a longtemps été gérée par la chaire d'éthologie du Muséum ; lors de la réorganisation du Muséum en 2001, elle fut rattachée au « département des jardins botaniques et zoologiques » et depuis 2017 au département « Adaptations du vivant » qui gère environ 3 500 animaux vivants[2]. Depuis avril 2023, Aude Bourgeois est la directrice de la ménagerie[3].
+Comme le parc zoologique de Paris (dit « zoo de Vincennes ») et la réserve zoologique de la Haute-Touche, la ménagerie a longtemps été gérée par la chaire d'éthologie du Muséum ; lors de la réorganisation du Muséum en 2001, elle fut rattachée au « département des jardins botaniques et zoologiques » et depuis 2017 au département « Adaptations du vivant » qui gère environ 3 500 animaux vivants. Depuis avril 2023, Aude Bourgeois est la directrice de la ménagerie.
 Elle est membre permanent de l'Association européenne des zoos et aquariums et s'engage dans la conservation ex situ en participant à des programmes européens pour les espèces menacées (EEP et ESB), dont elle en coordonne cinq. Elle est également membre de l'Association mondiale des zoos et aquariums (WAZA).
 </t>
         </is>
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9nagerie_du_Jardin_des_plantes</t>
+          <t>Ménagerie_du_Jardin_des_plantes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -517,33 +529,178 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Création de la ménagerie
-L'idée de la fondation d'une ménagerie à Paris commence à germer pendant la période de la Révolution française, en 1792. Après que Louis XVI a été contraint d'abandonner Versailles pour retourner à Paris en octobre 1789, la ménagerie royale de Versailles tombe en ruine et subit les pillages, de nombreux animaux étant même tués. Le 19 septembre 1792, à la veille de la Première République, le régisseur du domaine de Versailles écrit à Bernardin de Saint-Pierre, alors surintendant du Jardin des plantes de Paris, pour l’informer qu’Étienne Clavière, le ministre des Finances, l’a chargé d’offrir au Cabinet d’histoire naturelle les derniers animaux de la ménagerie de Versailles afin qu'ils y soient exposés taxidermisés[4]. Lorsqu'il visite les lieux, seuls subsistent cinq animaux sauvages : un quagga, un bubale, un goura, un lion d'Afrique et un rhinocéros indien[5]. De retour à Paris, il rédige son Mémoire sur la nécessité de joindre une ménagerie au Jardin national des plantes de Paris, dans lequel il s'adresse à la Convention nationale afin de la convaincre de fonder cette institution présentant des animaux vivants, principalement à des fins d'étude du règne animal et d'instruction publique, mais aussi pour le progrès des arts naturalistes, de l'économie rurale et de la philosophie[5].
+          <t>Création de la ménagerie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'idée de la fondation d'une ménagerie à Paris commence à germer pendant la période de la Révolution française, en 1792. Après que Louis XVI a été contraint d'abandonner Versailles pour retourner à Paris en octobre 1789, la ménagerie royale de Versailles tombe en ruine et subit les pillages, de nombreux animaux étant même tués. Le 19 septembre 1792, à la veille de la Première République, le régisseur du domaine de Versailles écrit à Bernardin de Saint-Pierre, alors surintendant du Jardin des plantes de Paris, pour l’informer qu’Étienne Clavière, le ministre des Finances, l’a chargé d’offrir au Cabinet d’histoire naturelle les derniers animaux de la ménagerie de Versailles afin qu'ils y soient exposés taxidermisés. Lorsqu'il visite les lieux, seuls subsistent cinq animaux sauvages : un quagga, un bubale, un goura, un lion d'Afrique et un rhinocéros indien. De retour à Paris, il rédige son Mémoire sur la nécessité de joindre une ménagerie au Jardin national des plantes de Paris, dans lequel il s'adresse à la Convention nationale afin de la convaincre de fonder cette institution présentant des animaux vivants, principalement à des fins d'étude du règne animal et d'instruction publique, mais aussi pour le progrès des arts naturalistes, de l'économie rurale et de la philosophie.
 Les premiers animaux à arriver sur le site sont des animaux confisqués aux forains qui les exhibaient dans les rues de la capitale et dont l'activité est interdite par arrêté municipal le 4 novembre 1793. Ils sont rejoints par les animaux des ménageries de Versailles et du Raincy (appartenant au duc d'Orléans), respectivement le 26 avril et le 27 mai 1794.
-La ménagerie du Jardin des plantes ouvre officiellement le 11 décembre 1794, ce qui en fait un des zoos les plus anciens du monde toujours ouverts au public, après celui de Schönbrunn à Vienne qui est fondé dès 1752. Lorsqu'elle ouvre, elle n’a pas encore l’étendue qui est la sienne aujourd’hui : la partie nord était encore partagée entre des propriétés privées. Elle n’acquerra sa surface présente qu’en 1860, lorsque Isidore Geoffroy Saint-Hilaire, alors directeur du Muséum, préconisera d’agrandir la ménagerie pour y étudier le comportement des animaux dans des espaces plus appropriés[6]. Lors de son ouverture la ménagerie abrite seulement 58 animaux : 32 mammifères et 26 oiseaux (dont un lion, un quagga, un bubale, des paons, des daims, des moutons, des chèvres, des singes, des ours, un chameau et un taureau)[7].
-Diversification des espèces jusqu'à la fin du XIXe siècle
-À partir de 1798, la jeune ménagerie accueille plusieurs animaux ramenés par les armées de la Convention, puis par les armées napoléoniennes : ainsi l'année 1798 voit l'arrivée des lions d'Afrique Marc et Constantine (offerts par le roi du Maroc et le dey d'Alger, ils donnent naissance à trois lionceaux dès 1800), ainsi que des éléphants asiatiques Hans et Parkie (réquisitionnés à la ménagerie du stathouder de Hollande) qui seront hébergés au parc respectivement de 1798 à 1802 pour Han, et de 1798 à 1817 pour Parkie. D'autres animaux affluent donnés ou réquisitionnés : les ours de Berne et des porcs-épics donnés par le gouverneur du Cap.
-Au cours de son histoire, elle a présenté une grande variété d’espèces animales, dont la première girafe présentée en France (Zarafa, en 1826)[8], des hippopotames, des ours bruns, blancs et malais, des bisons, des tigres, des gorilles, des chimpanzés, des phoques ou des otaries.
-Beaucoup de constructions, parfois sophistiquées pour l’époque, ont été édifiées à cet effet au XIXe et au début du XXe siècle, succédant aux enclos et cages sommaires du début : rotonde, fosses aux ours, singeries, fauveries, maisons des rapaces et des reptiles, faisanderies. Au fil du temps, on y a installé des fosses aux ours (1805), des loges des « animaux féroces » (1817-1821), une rotonde des « animaux paisibles » (1804-1812), un palais des singes (1835-1837), un pavillon des reptiles (1870-1874), un bassin des crocodiles, un bassin des otaries (1882), une grande volière, une faisanderie (1881), une cage des oiseaux de proie (1820-1825), auxquelles s’ajoute la grande volière métallique édifiée en 1888 par Alphonse Milne-Edwards pour l’Exposition universelle de 1889[9] et toujours utilisée.
-Guerres et renouveaux de 1870 à la fin du XXe siècle
-Au XIXe siècle, des promenades à dos d'éléphant d'Asie et de dromadaire avaient lieu pour le public dans les allées de la ménagerie moyennant un supplément ; elles ont cessé dans les années 1930 pour des raisons de sécurité (chutes)[10]. Lors du siège de Paris (1870-1871), la ménagerie est bombardée et le parc ne peut plus subvenir aux besoins de ses pensionnaires : les animaux, dont les éléphants Castor et Pollux[Note 3], sont alors abattus puis mangés par les Parisiens assiégés et affamés.
-Quelques animaux comme des primates, des lions, des tigres, des hippopotames et un rhinocéros[11] seront toutefois épargnés et les collections animales vite reconstitués après la guerre.
-Dans les années 1890, après presque cent ans d'existence, plusieurs bâtiments vieillissants sont en très mauvais état, telle la rotonde. En 1910 la ménagerie abrite presque 1 700 animaux : 407 mammifères, 636 oiseaux, 216 reptiles, 237 amphibiens et 197 poissons[12]. Les périodes de pénurie, lors de la Première Guerre mondiale, entraînent une sévère réduction du nombre d'animaux : en 1918 il ne reste que 124 mammifères et 205 oiseaux[12].
+La ménagerie du Jardin des plantes ouvre officiellement le 11 décembre 1794, ce qui en fait un des zoos les plus anciens du monde toujours ouverts au public, après celui de Schönbrunn à Vienne qui est fondé dès 1752. Lorsqu'elle ouvre, elle n’a pas encore l’étendue qui est la sienne aujourd’hui : la partie nord était encore partagée entre des propriétés privées. Elle n’acquerra sa surface présente qu’en 1860, lorsque Isidore Geoffroy Saint-Hilaire, alors directeur du Muséum, préconisera d’agrandir la ménagerie pour y étudier le comportement des animaux dans des espaces plus appropriés. Lors de son ouverture la ménagerie abrite seulement 58 animaux : 32 mammifères et 26 oiseaux (dont un lion, un quagga, un bubale, des paons, des daims, des moutons, des chèvres, des singes, des ours, un chameau et un taureau).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Ménagerie_du_Jardin_des_plantes</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9nagerie_du_Jardin_des_plantes</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Diversification des espèces jusqu'à la fin du XIXe siècle</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À partir de 1798, la jeune ménagerie accueille plusieurs animaux ramenés par les armées de la Convention, puis par les armées napoléoniennes : ainsi l'année 1798 voit l'arrivée des lions d'Afrique Marc et Constantine (offerts par le roi du Maroc et le dey d'Alger, ils donnent naissance à trois lionceaux dès 1800), ainsi que des éléphants asiatiques Hans et Parkie (réquisitionnés à la ménagerie du stathouder de Hollande) qui seront hébergés au parc respectivement de 1798 à 1802 pour Han, et de 1798 à 1817 pour Parkie. D'autres animaux affluent donnés ou réquisitionnés : les ours de Berne et des porcs-épics donnés par le gouverneur du Cap.
+Au cours de son histoire, elle a présenté une grande variété d’espèces animales, dont la première girafe présentée en France (Zarafa, en 1826), des hippopotames, des ours bruns, blancs et malais, des bisons, des tigres, des gorilles, des chimpanzés, des phoques ou des otaries.
+Beaucoup de constructions, parfois sophistiquées pour l’époque, ont été édifiées à cet effet au XIXe et au début du XXe siècle, succédant aux enclos et cages sommaires du début : rotonde, fosses aux ours, singeries, fauveries, maisons des rapaces et des reptiles, faisanderies. Au fil du temps, on y a installé des fosses aux ours (1805), des loges des « animaux féroces » (1817-1821), une rotonde des « animaux paisibles » (1804-1812), un palais des singes (1835-1837), un pavillon des reptiles (1870-1874), un bassin des crocodiles, un bassin des otaries (1882), une grande volière, une faisanderie (1881), une cage des oiseaux de proie (1820-1825), auxquelles s’ajoute la grande volière métallique édifiée en 1888 par Alphonse Milne-Edwards pour l’Exposition universelle de 1889 et toujours utilisée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ménagerie_du_Jardin_des_plantes</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9nagerie_du_Jardin_des_plantes</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Guerres et renouveaux de 1870 à la fin du XXe siècle</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au XIXe siècle, des promenades à dos d'éléphant d'Asie et de dromadaire avaient lieu pour le public dans les allées de la ménagerie moyennant un supplément ; elles ont cessé dans les années 1930 pour des raisons de sécurité (chutes). Lors du siège de Paris (1870-1871), la ménagerie est bombardée et le parc ne peut plus subvenir aux besoins de ses pensionnaires : les animaux, dont les éléphants Castor et Pollux[Note 3], sont alors abattus puis mangés par les Parisiens assiégés et affamés.
+Quelques animaux comme des primates, des lions, des tigres, des hippopotames et un rhinocéros seront toutefois épargnés et les collections animales vite reconstitués après la guerre.
+Dans les années 1890, après presque cent ans d'existence, plusieurs bâtiments vieillissants sont en très mauvais état, telle la rotonde. En 1910 la ménagerie abrite presque 1 700 animaux : 407 mammifères, 636 oiseaux, 216 reptiles, 237 amphibiens et 197 poissons. Les périodes de pénurie, lors de la Première Guerre mondiale, entraînent une sévère réduction du nombre d'animaux : en 1918 il ne reste que 124 mammifères et 205 oiseaux.
 			Peintres animaliers devant les félins (1902).
 			Fosse aux ours bruns (vers 1900).
 			Fosse aux ours blancs (1932).
 			Maison des singes construite dans les années 1830 et détruite en 1934.
 Le parc zoologique de Vincennes vient en 1934 compléter la Ménagerie et accueillir les animaux qui y étaient à l’étroit, tels les éléphants ou les girafes. La ménagerie tente elle aussi de se moderniser, les vieux bâtiments centenaires que sont alors les "loges des animaux féroces" et le "palais des singes " sont démolis et remplacés par la singerie (1934) et la fauverie (1937) actuelle.
 Au milieu du XXe siècle, la ménagerie nécessite des rénovations qui ne peuvent être entreprises, faute de moyens (c'était aussi l'époque où la galerie de Zoologie, depuis 1994 renommée « grande galerie de l'Évolution », avait dû fermer parce qu'il pleuvait à travers sa verrière). Les animaux vivaient dans des installations généralement dégradées et exiguës et par conséquent la ménagerie est contestée par les mouvements anti-zoos et éclipsée par des parcs zoologiques plus modernes (zoo de Vincennes, Thoiry ZooSafari).
-C’est à partir des années 1980 qu’une politique de réhabilitation de la ménagerie peut enfin être mise en œuvre, avec plusieurs rénovations successives (volières à rapaces, rotonde, pavillon d’herpétologie…). En 1993 tous les bâtiments sont classés monuments historiques[13].
-Une nette préférence est alors accordée à la conservation et présentation d’espèces de petite et moyenne taille, généralement peu connues et menacées d’extinction. Ainsi de 1991 à 1996, la Ménagerie accueille en moyenne 459 000 visiteurs annuels[15].
-Contestations au nom de la défense des animaux et adaptations au XXIe siècle
-Dès 1979, la Fondation droit animal, éthique et sciences avait entrepris des actions ayant pour objectif de faire fermer la Ménagerie, au nom de la défense de ses pensionnaires. L'association propose alors, avec l'appui d'écoles municipales limitrophes, un projet architectural visant à transformer le parc zoologique en ferme pédagogique[16]. Les soigneurs prennent conscience dans les années 1980 que les animaux peuvent souffrir de la captivité[17]. Les plus grandes espèces (éléphant, girafe, lion, tigre, guépard, gorille, chimpanzé, ours, loup, zèbre, hippopotame, rhinocéros, yack, panthère des neiges), quittent progressivement la ménagerie des années 1970 à 2020 à mesure que le respect des droits des animaux progresse dans la société française[18]. En effet, les installations de petite taille, impossibles à agrandir dans cet espace enclavé, n’offrent pas des conditions de vie compatibles avec les besoins de ces grands animaux. Ces espèces ne sont aujourd'hui plus présentées à la Ménagerie, mais pour certaines au zoo de Vincennes, plus vaste et rouvert après rénovation en 2014. En parallèle, des programmes d'enrichissement sont mis en place pour lutter contre l'ennui et le mal-être engendrés par la privation de liberté. Les perroquets sont entrainés à la réflexion, les orang-outang disposent de jeux et peuvent exercer leur créativité via la peinture[19] et les fauves sont incités à rechercher leur nourriture[17].
-Un projet de construction d'un espace de 585 m2 et de 15 m de haut, reliée à la singerie actuelle par un souterrain, est envisagé à partir de 2015 pour fournir aux orangs-outans de Bornéo, l'une des grandes espèces dont la ménagerie ne s'est pas séparée, un lieu de vie plus approprié que l'actuelle singerie de 1934 qui ne répond plus aux objectifs de bien-être animal[20]. En avril 2016, le directeur attire l'attention sur la difficulté à financer ce projet à 2,5 millions d'euros, dans un contexte où la subvention annuelle de la ménagerie est passée de 17 à 4 millions d'euros, entre 2015 et 2016. Dans le cas où ce projet ne verrait pas le jour, le transfert des trois orangs-outans vers un autre parc zoologique est envisagé[21].
-En 2014, la Ménagerie a accueilli près de 650 000 visiteurs[22]. Son record de fréquentation date de 2011, avec 800 000 visiteurs, alors que le zoo de Vincennes est fermé pour travaux[23]. En 2015, l'affluence diminue à 525 367 visiteurs[24]. En 2016, elle diminue encore, à 465 230[25].
-L'association Paris Animaux Zoopolis (PAZ) engage à partir de 2019 une campagne en faveur de la fermeture de la ménagerie, jugée trop vétuste pour pouvoir détenir ses animaux dans de bonnes conditions. La cause de l'orang-outan Nénette, ayant passé plus de 50 ans en captivité après avoir été capturée à l'âge de 3 ans est particulièrement défendue[26]. Sensible aux arguments de l'association, l'élue municipale Danielle Simonnet dépose alors un vœu au Conseil de Paris en faveur de la fermeture de la ménagerie[27],[28],[29]. En 2021, un collectif de scientifiques (vétérinaires, biologistes, éthologues) alertent sur les conditions d'enfermement des animaux dans une tribune publiée dans le journal Le Monde[30]. Une pétition en ligne demandant la fermeture du zoo recueille fin 2022 près de 61 000 signatures[31].
-Historique des directeurs
-En 2020, vingt-deux professeurs, en majorité zoologues et/ou vétérinaires, se sont succédé depuis plus de deux siècles à la direction de la Ménagerie : 
+C’est à partir des années 1980 qu’une politique de réhabilitation de la ménagerie peut enfin être mise en œuvre, avec plusieurs rénovations successives (volières à rapaces, rotonde, pavillon d’herpétologie…). En 1993 tous les bâtiments sont classés monuments historiques.
+Une nette préférence est alors accordée à la conservation et présentation d’espèces de petite et moyenne taille, généralement peu connues et menacées d’extinction. Ainsi de 1991 à 1996, la Ménagerie accueille en moyenne 459 000 visiteurs annuels.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ménagerie_du_Jardin_des_plantes</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9nagerie_du_Jardin_des_plantes</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Contestations au nom de la défense des animaux et adaptations au XXIe siècle</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dès 1979, la Fondation droit animal, éthique et sciences avait entrepris des actions ayant pour objectif de faire fermer la Ménagerie, au nom de la défense de ses pensionnaires. L'association propose alors, avec l'appui d'écoles municipales limitrophes, un projet architectural visant à transformer le parc zoologique en ferme pédagogique. Les soigneurs prennent conscience dans les années 1980 que les animaux peuvent souffrir de la captivité. Les plus grandes espèces (éléphant, girafe, lion, tigre, guépard, gorille, chimpanzé, ours, loup, zèbre, hippopotame, rhinocéros, yack, panthère des neiges), quittent progressivement la ménagerie des années 1970 à 2020 à mesure que le respect des droits des animaux progresse dans la société française. En effet, les installations de petite taille, impossibles à agrandir dans cet espace enclavé, n’offrent pas des conditions de vie compatibles avec les besoins de ces grands animaux. Ces espèces ne sont aujourd'hui plus présentées à la Ménagerie, mais pour certaines au zoo de Vincennes, plus vaste et rouvert après rénovation en 2014. En parallèle, des programmes d'enrichissement sont mis en place pour lutter contre l'ennui et le mal-être engendrés par la privation de liberté. Les perroquets sont entrainés à la réflexion, les orang-outang disposent de jeux et peuvent exercer leur créativité via la peinture et les fauves sont incités à rechercher leur nourriture.
+Un projet de construction d'un espace de 585 m2 et de 15 m de haut, reliée à la singerie actuelle par un souterrain, est envisagé à partir de 2015 pour fournir aux orangs-outans de Bornéo, l'une des grandes espèces dont la ménagerie ne s'est pas séparée, un lieu de vie plus approprié que l'actuelle singerie de 1934 qui ne répond plus aux objectifs de bien-être animal. En avril 2016, le directeur attire l'attention sur la difficulté à financer ce projet à 2,5 millions d'euros, dans un contexte où la subvention annuelle de la ménagerie est passée de 17 à 4 millions d'euros, entre 2015 et 2016. Dans le cas où ce projet ne verrait pas le jour, le transfert des trois orangs-outans vers un autre parc zoologique est envisagé.
+En 2014, la Ménagerie a accueilli près de 650 000 visiteurs. Son record de fréquentation date de 2011, avec 800 000 visiteurs, alors que le zoo de Vincennes est fermé pour travaux. En 2015, l'affluence diminue à 525 367 visiteurs. En 2016, elle diminue encore, à 465 230.
+L'association Paris Animaux Zoopolis (PAZ) engage à partir de 2019 une campagne en faveur de la fermeture de la ménagerie, jugée trop vétuste pour pouvoir détenir ses animaux dans de bonnes conditions. La cause de l'orang-outan Nénette, ayant passé plus de 50 ans en captivité après avoir été capturée à l'âge de 3 ans est particulièrement défendue. Sensible aux arguments de l'association, l'élue municipale Danielle Simonnet dépose alors un vœu au Conseil de Paris en faveur de la fermeture de la ménagerie. En 2021, un collectif de scientifiques (vétérinaires, biologistes, éthologues) alertent sur les conditions d'enfermement des animaux dans une tribune publiée dans le journal Le Monde. Une pétition en ligne demandant la fermeture du zoo recueille fin 2022 près de 61 000 signatures.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ménagerie_du_Jardin_des_plantes</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9nagerie_du_Jardin_des_plantes</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Historique des directeurs</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2020, vingt-deux professeurs, en majorité zoologues et/ou vétérinaires, se sont succédé depuis plus de deux siècles à la direction de la Ménagerie : 
 1793-1798 : Étienne Geoffroy Saint-Hilaire
 1798-1801 : Mordant-Delaunay
 1801-1802 : Jean-Baptiste de Lamarck
@@ -571,70 +728,74 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>M%C3%A9nagerie_du_Jardin_des_plantes</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ménagerie_du_Jardin_des_plantes</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/M%C3%A9nagerie_du_Jardin_des_plantes</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Conservation des espèces et coopération internationale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Actuellement, la ménagerie héberge environ six cents mammifères, reptiles, oiseaux et amphibiens, sur 5,5 hectares. Elle s'est spécialisée dans plusieurs groupes d'animaux :
 chez les mammifères, le cheval de Przewalski, l'orang-outan, plusieurs espèces de caprins (chèvre des montagnes Rocheuses, takin, bharal), des petits carnivores, des rongeurs et des cercopithèques ;
 chez les oiseaux, les vautours et les rapaces nocturnes sont bien représentés, de même que les faisans et certains échassiers (spatules, ibis, grues, agamis) ;
 de nombreux reptiles (dont des tortues géantes de plus de cent ans), des amphibiens et des insectes sont élevés dans la galerie d'herpétologie et au vivarium.
 Diverses espèces, pour certaines menacées dans leur milieu naturel (Aras ou divers amphibiens par exemple) sont reproduites ici (notamment à la Nurserie, à l'extrémité nord) et des échanges ont lieu avec d'autres établissements similaires à travers le monde.
-Les scientifiques du zoo coordonnent cinq programmes européens d'élevage conservatoire (EEP et ESB) : ceux du binturong (vulnérable), du gaur (vulnérable), du grand bharal (préoccupation mineure), de la loutre d'Europe (quasi menacée) et de l'oryx d'Arabie (vulnérable)[32].
+Les scientifiques du zoo coordonnent cinq programmes européens d'élevage conservatoire (EEP et ESB) : ceux du binturong (vulnérable), du gaur (vulnérable), du grand bharal (préoccupation mineure), de la loutre d'Europe (quasi menacée) et de l'oryx d'Arabie (vulnérable).
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>M%C3%A9nagerie_du_Jardin_des_plantes</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Ménagerie_du_Jardin_des_plantes</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/M%C3%A9nagerie_du_Jardin_des_plantes</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Installations et faune hébergée</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il présente environ 190 mammifères de 52 espèces, 260 oiseaux de 69 espèces, 100 reptiles de 27 espèces, 80 amphibiens de 13 espèces, ainsi qu'approximativement 650 invertébrés de 28 espèces au sein du vivarium[1]. Celui-ci, construit en 1926 grâce à une souscription ouverte par René Jeannel pour la « journée Pasteur », dépendait à l'origine du laboratoire d'Entomologie du Muséum.
-L'équipe de la clinique vétérinaire du zoo comprend notamment un vétérinaire spécialiste diplômé du Collège européen de médecine zoologique (ECZM)[33].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il présente environ 190 mammifères de 52 espèces, 260 oiseaux de 69 espèces, 100 reptiles de 27 espèces, 80 amphibiens de 13 espèces, ainsi qu'approximativement 650 invertébrés de 28 espèces au sein du vivarium. Celui-ci, construit en 1926 grâce à une souscription ouverte par René Jeannel pour la « journée Pasteur », dépendait à l'origine du laboratoire d'Entomologie du Muséum.
+L'équipe de la clinique vétérinaire du zoo comprend notamment un vétérinaire spécialiste diplômé du Collège européen de médecine zoologique (ECZM).
 </t>
         </is>
       </c>
